--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\SVNrepositywc\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D11"/>
+  <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +481,11 @@
       </c>
       <c r="D11">
         <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -510,7 +515,7 @@
         <v>100</v>
       </c>
       <c r="D1">
-        <f>C1*B1</f>
+        <f t="shared" ref="D1:D6" si="0">C1*B1</f>
         <v>7400</v>
       </c>
     </row>
@@ -526,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f>C2*B2</f>
+        <f t="shared" si="0"/>
         <v>5920</v>
       </c>
     </row>
@@ -542,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>C3*B3</f>
+        <f t="shared" si="0"/>
         <v>4144</v>
       </c>
     </row>
@@ -557,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f>C4*B4</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -572,7 +577,7 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <f>C5*B5</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
@@ -587,7 +592,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <f>C6*B6</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
